--- a/requirement list.xlsx
+++ b/requirement list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneulmun/Documents/Github/hong-bookstore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4A823-B415-8645-994B-88D6B2551D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D6BE76-4AFD-4C4C-9A55-83F96F19DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="17240" xr2:uid="{146BEB06-C982-9D4D-B612-9605B739DDC5}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
